--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/C/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/C/10/seed5/result_data_RandomForest.xlsx
@@ -603,7 +603,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.3708</v>
+        <v>-11.303</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -883,7 +883,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-12.63359999999999</v>
+        <v>-12.72760000000001</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -939,7 +939,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-11.90050000000001</v>
+        <v>-11.84450000000001</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -967,7 +967,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.48620000000001</v>
+        <v>-12.14920000000001</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1079,7 +1079,7 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.6141</v>
+        <v>-14.60449999999999</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1191,7 +1191,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-12.8641</v>
+        <v>-13.1761</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1205,7 +1205,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.5241</v>
+        <v>-13.53779999999999</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1373,7 +1373,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-12.1903</v>
+        <v>-12.247</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1401,7 +1401,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.79729999999999</v>
+        <v>-11.8406</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1443,7 +1443,7 @@
         <v>6.81</v>
       </c>
       <c r="C72" t="n">
-        <v>-11.607</v>
+        <v>-11.5416</v>
       </c>
       <c r="D72" t="n">
         <v>-7.37</v>
@@ -1709,7 +1709,7 @@
         <v>7.49</v>
       </c>
       <c r="C91" t="n">
-        <v>-12.478</v>
+        <v>-12.251</v>
       </c>
       <c r="D91" t="n">
         <v>-8.890000000000001</v>
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.02840000000001</v>
+        <v>-11.6507</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1891,7 +1891,7 @@
         <v>7.61</v>
       </c>
       <c r="C104" t="n">
-        <v>-12.66950000000001</v>
+        <v>-12.62460000000001</v>
       </c>
       <c r="D104" t="n">
         <v>-7.34</v>
